--- a/results/mp/logistic/corona/confidence/168/desired-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/desired-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,45 +58,60 @@
     <t>collapse</t>
   </si>
   <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>fuck</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
+    <t>cut</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
     <t>lower</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>demand</t>
   </si>
   <si>
@@ -106,12 +121,12 @@
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
@@ -121,33 +136,33 @@
     <t>hand</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
@@ -157,52 +172,58 @@
     <t>gt</t>
   </si>
   <si>
+    <t>won</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
+    <t>data</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>increase</t>
+    <t>you</t>
   </si>
 </sst>
 </file>
@@ -560,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,10 +589,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -650,7 +671,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -700,16 +721,16 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K4">
-        <v>0.9696969696969697</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -721,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -729,13 +750,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.918918918918919</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="C5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -747,19 +768,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5">
+        <v>0.9393939393939394</v>
+      </c>
+      <c r="L5">
         <v>31</v>
       </c>
-      <c r="K5">
-        <v>0.9583333333333334</v>
-      </c>
-      <c r="L5">
-        <v>115</v>
-      </c>
       <c r="M5">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -771,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -800,16 +821,16 @@
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K6">
-        <v>0.9491525423728814</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -821,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -829,13 +850,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8595890410958904</v>
+        <v>0.8698630136986302</v>
       </c>
       <c r="C7">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D7">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -847,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K7">
         <v>0.9302325581395349</v>
@@ -900,16 +921,16 @@
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K8">
-        <v>0.9190600522193212</v>
+        <v>0.9138381201044387</v>
       </c>
       <c r="L8">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M8">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -921,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -929,13 +950,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7450980392156863</v>
+        <v>0.775</v>
       </c>
       <c r="C9">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -947,19 +968,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K9">
-        <v>0.9166666666666666</v>
+        <v>0.8962264150943396</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -971,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -979,13 +1000,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.725</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1000,16 +1021,16 @@
         <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K10">
-        <v>0.9014084507042254</v>
+        <v>0.8943661971830986</v>
       </c>
       <c r="L10">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M10">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1021,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1029,13 +1050,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7195767195767195</v>
+        <v>0.6918604651162791</v>
       </c>
       <c r="C11">
-        <v>136</v>
+        <v>357</v>
       </c>
       <c r="D11">
-        <v>136</v>
+        <v>357</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1047,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K11">
-        <v>0.8936170212765957</v>
+        <v>0.89375</v>
       </c>
       <c r="L11">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="M11">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1071,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1079,13 +1100,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7093023255813954</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="C12">
-        <v>366</v>
+        <v>129</v>
       </c>
       <c r="D12">
-        <v>366</v>
+        <v>129</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1097,10 +1118,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K12">
         <v>0.8928571428571429</v>
@@ -1129,13 +1150,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6949152542372882</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="C13">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1147,19 +1168,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K13">
-        <v>0.8875</v>
+        <v>0.890625</v>
       </c>
       <c r="L13">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="M13">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1171,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1179,13 +1200,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6666666666666666</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1197,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>0.8867924528301887</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L14">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="M14">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1221,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1229,13 +1250,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6442953020134228</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C15">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="D15">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1247,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>0.8828125</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L15">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="M15">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1271,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1300,16 +1321,16 @@
         <v>14</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>0.8793103448275862</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L16">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M16">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1321,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1329,13 +1350,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5777777777777777</v>
+        <v>0.6308724832214765</v>
       </c>
       <c r="C17">
-        <v>208</v>
+        <v>94</v>
       </c>
       <c r="D17">
-        <v>208</v>
+        <v>94</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1347,19 +1368,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K17">
-        <v>0.8611111111111112</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1371,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1379,13 +1400,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4933333333333333</v>
+        <v>0.6055555555555555</v>
       </c>
       <c r="C18">
-        <v>37</v>
+        <v>218</v>
       </c>
       <c r="D18">
-        <v>37</v>
+        <v>218</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1397,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K18">
         <v>0.8536585365853658</v>
@@ -1429,13 +1450,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4727272727272727</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C19">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1447,10 +1468,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K19">
         <v>0.8253968253968254</v>
@@ -1479,13 +1500,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4642857142857143</v>
+        <v>0.52</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D20">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1497,10 +1518,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K20">
         <v>0.825</v>
@@ -1529,13 +1550,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3373015873015873</v>
+        <v>0.5178571428571429</v>
       </c>
       <c r="C21">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="D21">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1547,19 +1568,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K21">
-        <v>0.7916666666666666</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L21">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1571,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1579,13 +1600,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1340482573726542</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="C22">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D22">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1597,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>323</v>
+        <v>28</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K22">
-        <v>0.78</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L22">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M22">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1621,73 +1642,145 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>0.4</v>
+      </c>
+      <c r="C23">
+        <v>36</v>
+      </c>
+      <c r="D23">
+        <v>36</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>54</v>
+      </c>
       <c r="J23" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K23">
-        <v>0.7692307692307693</v>
+        <v>0.7705882352941177</v>
       </c>
       <c r="L23">
+        <v>262</v>
+      </c>
+      <c r="M23">
+        <v>262</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0.373015873015873</v>
+      </c>
+      <c r="C24">
+        <v>94</v>
+      </c>
+      <c r="D24">
+        <v>94</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>158</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K24">
+        <v>0.7428571428571429</v>
+      </c>
+      <c r="L24">
+        <v>26</v>
+      </c>
+      <c r="M24">
+        <v>26</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M23">
-        <v>30</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K24">
-        <v>0.7617647058823529</v>
-      </c>
-      <c r="L24">
-        <v>259</v>
-      </c>
-      <c r="M24">
-        <v>259</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="B25">
+        <v>0.3246753246753247</v>
+      </c>
+      <c r="C25">
+        <v>25</v>
+      </c>
+      <c r="D25">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>52</v>
+      </c>
       <c r="J25" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K25">
-        <v>0.7254237288135593</v>
+        <v>0.735593220338983</v>
       </c>
       <c r="L25">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M25">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1699,21 +1792,45 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:17">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>0.3125</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>55</v>
+      </c>
       <c r="J26" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K26">
-        <v>0.7142857142857143</v>
+        <v>0.7196652719665272</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="M26">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1725,21 +1842,45 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0.1876675603217158</v>
+      </c>
+      <c r="C27">
+        <v>70</v>
+      </c>
+      <c r="D27">
+        <v>70</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>303</v>
+      </c>
       <c r="J27" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K27">
-        <v>0.7071129707112971</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L27">
-        <v>169</v>
+        <v>36</v>
       </c>
       <c r="M27">
-        <v>169</v>
+        <v>36</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1751,15 +1892,15 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>70</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K28">
-        <v>0.6862745098039216</v>
+        <v>0.7</v>
       </c>
       <c r="L28">
         <v>35</v>
@@ -1777,21 +1918,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K29">
-        <v>0.6857142857142857</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L29">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M29">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1803,21 +1944,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K30">
-        <v>0.6808510638297872</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L30">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M30">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1829,21 +1970,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K31">
-        <v>0.6741573033707865</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L31">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="M31">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1855,21 +1996,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K32">
-        <v>0.6461538461538462</v>
+        <v>0.6404494382022472</v>
       </c>
       <c r="L32">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="M32">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1881,21 +2022,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K33">
-        <v>0.6</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1907,21 +2048,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K34">
-        <v>0.547945205479452</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="L34">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M34">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1933,21 +2074,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K35">
-        <v>0.5</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L35">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M35">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1959,21 +2100,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K36">
-        <v>0.5</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L36">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M36">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1985,7 +2126,59 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>39</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K37">
+        <v>0.484375</v>
+      </c>
+      <c r="L37">
+        <v>31</v>
+      </c>
+      <c r="M37">
+        <v>31</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K38">
+        <v>0.02668890742285238</v>
+      </c>
+      <c r="L38">
+        <v>32</v>
+      </c>
+      <c r="M38">
+        <v>33</v>
+      </c>
+      <c r="N38">
+        <v>0.97</v>
+      </c>
+      <c r="O38">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>1167</v>
       </c>
     </row>
   </sheetData>
